--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.29218772758851</v>
+        <v>88.47367197253467</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.54511643819509</v>
+        <v>121.0535811757071</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.23554743078867</v>
+        <v>109.5003972880975</v>
       </c>
       <c r="AD2" t="n">
-        <v>71292.18772758851</v>
+        <v>88473.67197253468</v>
       </c>
       <c r="AE2" t="n">
-        <v>97545.11643819509</v>
+        <v>121053.581175707</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.072103581327076e-06</v>
+        <v>1.019560006686794e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>88235.54743078868</v>
+        <v>109500.3972880975</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.41249260867492</v>
+        <v>58.04594991270933</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.6083523124888</v>
+        <v>79.42102947711777</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.15590605671794</v>
+        <v>71.84119789195502</v>
       </c>
       <c r="AD3" t="n">
-        <v>49412.49260867492</v>
+        <v>58045.94991270933</v>
       </c>
       <c r="AE3" t="n">
-        <v>67608.3523124888</v>
+        <v>79421.02947711777</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.004926629484035e-05</v>
+        <v>1.448766960627884e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.024088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>61155.90605671794</v>
+        <v>71841.19789195502</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.01576610366924</v>
+        <v>55.19716084006719</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.01484832011945</v>
+        <v>75.5231905882269</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.05062419984311</v>
+        <v>68.31536327596741</v>
       </c>
       <c r="AD4" t="n">
-        <v>38015.76610366924</v>
+        <v>55197.16084006719</v>
       </c>
       <c r="AE4" t="n">
-        <v>52014.84832011945</v>
+        <v>75523.19058822689</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.105976687653051e-05</v>
+        <v>1.594447233544885e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.747395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>47050.62419984311</v>
+        <v>68315.36327596741</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>36.47902524473084</v>
+        <v>45.19773389478843</v>
       </c>
       <c r="AB5" t="n">
-        <v>49.91221168070824</v>
+        <v>61.84153349812089</v>
       </c>
       <c r="AC5" t="n">
-        <v>45.14866025022199</v>
+        <v>55.93946433621043</v>
       </c>
       <c r="AD5" t="n">
-        <v>36479.02524473084</v>
+        <v>45197.73389478843</v>
       </c>
       <c r="AE5" t="n">
-        <v>49912.21168070824</v>
+        <v>61841.53349812089</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.162556504016743e-05</v>
+        <v>1.676016341359449e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.613932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>45148.66025022199</v>
+        <v>55939.46433621043</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>36.5079114928111</v>
+        <v>45.22662014286869</v>
       </c>
       <c r="AB6" t="n">
-        <v>49.95173511970278</v>
+        <v>61.8810569371156</v>
       </c>
       <c r="AC6" t="n">
-        <v>45.1844116276705</v>
+        <v>55.975215713659</v>
       </c>
       <c r="AD6" t="n">
-        <v>36507.9114928111</v>
+        <v>45226.62014286869</v>
       </c>
       <c r="AE6" t="n">
-        <v>49951.73511970277</v>
+        <v>61881.0569371156</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.162995324374679e-05</v>
+        <v>1.676648973053721e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.613932291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>45184.4116276705</v>
+        <v>55975.215713659</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.11111524148978</v>
+        <v>69.94596235149562</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.66897097041807</v>
+        <v>95.70315148735375</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.73354637255893</v>
+        <v>86.56937702964102</v>
       </c>
       <c r="AD2" t="n">
-        <v>53111.11524148978</v>
+        <v>69945.96235149562</v>
       </c>
       <c r="AE2" t="n">
-        <v>72668.97097041807</v>
+        <v>95703.15148735375</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.615651481856399e-06</v>
+        <v>1.261298965765078e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.649088541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65733.54637255894</v>
+        <v>86569.37702964102</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.71448141712064</v>
+        <v>53.46398767255747</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.2343732033636</v>
+        <v>73.15178659823755</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.44007512931262</v>
+        <v>66.17028275449549</v>
       </c>
       <c r="AD3" t="n">
-        <v>36714.48141712064</v>
+        <v>53463.98767255747</v>
       </c>
       <c r="AE3" t="n">
-        <v>50234.3732033636</v>
+        <v>73151.78659823755</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135453658612539e-05</v>
+        <v>1.662261441631094e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.770182291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>45440.07512931262</v>
+        <v>66170.28275449549</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.83338381163829</v>
+        <v>43.33614822121515</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.66057247138576</v>
+        <v>59.29442985217554</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.11191432683508</v>
+        <v>53.63545268735087</v>
       </c>
       <c r="AD4" t="n">
-        <v>34833.38381163828</v>
+        <v>43336.14822121515</v>
       </c>
       <c r="AE4" t="n">
-        <v>47660.57247138576</v>
+        <v>59294.42985217554</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.221492338687399e-05</v>
+        <v>1.788218832575639e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.574869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>43111.91432683507</v>
+        <v>53635.45268735087</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.88411677556793</v>
+        <v>43.38688118514481</v>
       </c>
       <c r="AB5" t="n">
-        <v>47.72998755081438</v>
+        <v>59.36384493160447</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.17470452850791</v>
+        <v>53.69824288902381</v>
       </c>
       <c r="AD5" t="n">
-        <v>34884.11677556793</v>
+        <v>43386.88118514481</v>
       </c>
       <c r="AE5" t="n">
-        <v>47729.98755081438</v>
+        <v>59363.84493160447</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220970775067726e-05</v>
+        <v>1.787455283057116e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.574869791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>43174.70452850791</v>
+        <v>53698.24288902381</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.29994787055644</v>
+        <v>46.74918448446608</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.825969532629</v>
+        <v>63.96429664008618</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.73871910713103</v>
+        <v>57.859633943224</v>
       </c>
       <c r="AD2" t="n">
-        <v>31299.94787055644</v>
+        <v>46749.18448446608</v>
       </c>
       <c r="AE2" t="n">
-        <v>42825.96953262899</v>
+        <v>63964.29664008618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.31719203692141e-05</v>
+        <v>2.037858665970253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.662760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>38738.71910713102</v>
+        <v>57859.63394322401</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.30625451747595</v>
+        <v>46.75549113138559</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.83459856517386</v>
+        <v>63.97292567263107</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.74652459692074</v>
+        <v>57.86743943301374</v>
       </c>
       <c r="AD3" t="n">
-        <v>31306.25451747595</v>
+        <v>46755.49113138559</v>
       </c>
       <c r="AE3" t="n">
-        <v>42834.59856517386</v>
+        <v>63972.92567263107</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.321190517036107e-05</v>
+        <v>2.044044808251746e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>38746.52459692075</v>
+        <v>57867.43943301374</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.7202839977381</v>
+        <v>50.67787416665774</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.50582431639664</v>
+        <v>69.33970318481447</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.97193511856726</v>
+        <v>62.72201923175562</v>
       </c>
       <c r="AD2" t="n">
-        <v>34720.2839977381</v>
+        <v>50677.87416665774</v>
       </c>
       <c r="AE2" t="n">
-        <v>47505.82431639664</v>
+        <v>69339.70318481447</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165732926152225e-05</v>
+        <v>1.761765140105105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.877604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>42971.93511856726</v>
+        <v>62722.01923175562</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.59012139710537</v>
+        <v>40.69692776342019</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.59124187008361</v>
+        <v>55.6833319874773</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.3355163302795</v>
+        <v>50.36899293474841</v>
       </c>
       <c r="AD3" t="n">
-        <v>32590.12139710537</v>
+        <v>40696.92776342019</v>
       </c>
       <c r="AE3" t="n">
-        <v>44591.24187008361</v>
+        <v>55683.33198747729</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292140434197601e-05</v>
+        <v>1.952804044579539e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>40335.5163302795</v>
+        <v>50368.99293474841</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.46297882774889</v>
+        <v>45.49526124746101</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.68079156379708</v>
+        <v>62.2486235480277</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.70283531637364</v>
+        <v>56.30770228310875</v>
       </c>
       <c r="AD2" t="n">
-        <v>30462.97882774889</v>
+        <v>45495.26124746101</v>
       </c>
       <c r="AE2" t="n">
-        <v>41680.79156379708</v>
+        <v>62248.6235480277</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305734584943493e-05</v>
+        <v>2.063697830078081e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.789713541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>37702.83531637364</v>
+        <v>56307.70228310875</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.19360412719346</v>
+        <v>72.14196943207391</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.51832413676198</v>
+        <v>98.70782525599434</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.31096127180018</v>
+        <v>89.2872889508896</v>
       </c>
       <c r="AD2" t="n">
-        <v>55193.60412719346</v>
+        <v>72141.96943207391</v>
       </c>
       <c r="AE2" t="n">
-        <v>75518.32413676198</v>
+        <v>98707.82525599434</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.206402593512404e-06</v>
+        <v>1.196400182234474e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.795572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68310.96127180019</v>
+        <v>89287.2889508896</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.66040089725661</v>
+        <v>54.52342534756819</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.52862196710161</v>
+        <v>74.60135596427804</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.61080260753288</v>
+        <v>67.48150725472492</v>
       </c>
       <c r="AD3" t="n">
-        <v>37660.40089725662</v>
+        <v>54523.42534756819</v>
       </c>
       <c r="AE3" t="n">
-        <v>51528.62196710162</v>
+        <v>74601.35596427805</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.102674029011056e-05</v>
+        <v>1.607573348030692e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.825520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>46610.80260753288</v>
+        <v>67481.50725472491</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.19631499495365</v>
+        <v>43.75583850196787</v>
       </c>
       <c r="AB4" t="n">
-        <v>48.15715092778922</v>
+        <v>59.86866860972955</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.5611000323131</v>
+        <v>54.15488690383328</v>
       </c>
       <c r="AD4" t="n">
-        <v>35196.31499495365</v>
+        <v>43755.83850196787</v>
       </c>
       <c r="AE4" t="n">
-        <v>48157.15092778923</v>
+        <v>59868.66860972955</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210223034132308e-05</v>
+        <v>1.764367567982714e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.574869791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>43561.1000323131</v>
+        <v>54154.88690383328</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>35.24669094387348</v>
+        <v>43.80621445088771</v>
       </c>
       <c r="AB5" t="n">
-        <v>48.22607752353101</v>
+        <v>59.93759520547164</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.62344837049659</v>
+        <v>54.21723524201686</v>
       </c>
       <c r="AD5" t="n">
-        <v>35246.69094387348</v>
+        <v>43806.21445088771</v>
       </c>
       <c r="AE5" t="n">
-        <v>48226.07752353101</v>
+        <v>59937.59520547165</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.207246197126905e-05</v>
+        <v>1.760027678128221e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.581380208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>43623.44837049659</v>
+        <v>54217.23524201686</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.97368113896352</v>
+        <v>44.75906424648085</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.01131287971364</v>
+        <v>61.24132633256772</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.09725073827789</v>
+        <v>55.39654010014142</v>
       </c>
       <c r="AD2" t="n">
-        <v>29973.68113896352</v>
+        <v>44759.06424648086</v>
       </c>
       <c r="AE2" t="n">
-        <v>41011.31287971364</v>
+        <v>61241.32633256772</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.288783463172657e-05</v>
+        <v>2.064933840245504e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.893880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>37097.25073827789</v>
+        <v>55396.54010014142</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.08852939422066</v>
+        <v>55.32183172474449</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.42860331645298</v>
+        <v>75.69377079273355</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.27962784205703</v>
+        <v>68.46966354516681</v>
       </c>
       <c r="AD2" t="n">
-        <v>47088.52939422066</v>
+        <v>55321.83172474449</v>
       </c>
       <c r="AE2" t="n">
-        <v>64428.60331645298</v>
+        <v>75693.77079273354</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016708100910381e-05</v>
+        <v>1.509652107103205e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.186848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>58279.62784205703</v>
+        <v>68469.66354516681</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.38929040973439</v>
+        <v>50.77037519911061</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.05294428688563</v>
+        <v>69.46626717827395</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.56227732345031</v>
+        <v>62.83650413531304</v>
       </c>
       <c r="AD3" t="n">
-        <v>34389.29040973439</v>
+        <v>50770.37519911061</v>
       </c>
       <c r="AE3" t="n">
-        <v>47052.94428688563</v>
+        <v>69466.26717827395</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.220939370534763e-05</v>
+        <v>1.812903518446082e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.652994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>42562.27732345031</v>
+        <v>62836.50413531304</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>33.74353513610529</v>
+        <v>42.0620888126484</v>
       </c>
       <c r="AB4" t="n">
-        <v>46.16939343279854</v>
+        <v>57.55120556167719</v>
       </c>
       <c r="AC4" t="n">
-        <v>41.76305132280325</v>
+        <v>52.05859927660925</v>
       </c>
       <c r="AD4" t="n">
-        <v>33743.5351361053</v>
+        <v>42062.0888126484</v>
       </c>
       <c r="AE4" t="n">
-        <v>46169.39343279853</v>
+        <v>57551.20556167718</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.259570457056316e-05</v>
+        <v>1.870264624465331e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.571614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>41763.05132280325</v>
+        <v>52058.59927660925</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.14289264395923</v>
+        <v>67.85990488725243</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.97596198062539</v>
+        <v>92.84891563441749</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.29755438108937</v>
+        <v>83.9875454405629</v>
       </c>
       <c r="AD2" t="n">
-        <v>51142.89264395923</v>
+        <v>67859.90488725243</v>
       </c>
       <c r="AE2" t="n">
-        <v>69975.96198062539</v>
+        <v>92848.9156344175</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.052105828519787e-06</v>
+        <v>1.331060093594487e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.505859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>63297.55438108937</v>
+        <v>83987.5454405629</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.48750863645946</v>
+        <v>52.11918002518344</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.55557491465235</v>
+        <v>71.31176144637516</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.92149899306276</v>
+        <v>64.50586702063472</v>
       </c>
       <c r="AD3" t="n">
-        <v>35487.50863645946</v>
+        <v>52119.18002518344</v>
       </c>
       <c r="AE3" t="n">
-        <v>48555.57491465234</v>
+        <v>71311.76144637515</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.188135813440588e-05</v>
+        <v>1.747085371073038e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.672526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>43921.49899306276</v>
+        <v>64505.86702063472</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.51514066852748</v>
+        <v>42.95898764474796</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.22513816308707</v>
+        <v>58.77838211230309</v>
       </c>
       <c r="AC4" t="n">
-        <v>42.71803725778322</v>
+        <v>53.16865581949413</v>
       </c>
       <c r="AD4" t="n">
-        <v>34515.14066852748</v>
+        <v>42958.98764474796</v>
       </c>
       <c r="AE4" t="n">
-        <v>47225.13816308707</v>
+        <v>58778.38211230309</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.231622270635515e-05</v>
+        <v>1.811029704999852e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>42718.03725778322</v>
+        <v>53168.65581949413</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.40811728068071</v>
+        <v>85.48685635131828</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.59900401652962</v>
+        <v>116.9668882737554</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.66604644024214</v>
+        <v>105.8037326209973</v>
       </c>
       <c r="AD2" t="n">
-        <v>68408.11728068072</v>
+        <v>85486.85635131827</v>
       </c>
       <c r="AE2" t="n">
-        <v>93599.00401652962</v>
+        <v>116966.8882737554</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.460478571157058e-06</v>
+        <v>1.079361528331672e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.104817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84666.04644024213</v>
+        <v>105803.7326209973</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.81392714682806</v>
+        <v>56.89257670891768</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.4751715886239</v>
+        <v>77.84293337645622</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.27613766869421</v>
+        <v>70.41371306826832</v>
       </c>
       <c r="AD3" t="n">
-        <v>39813.92714682806</v>
+        <v>56892.57670891768</v>
       </c>
       <c r="AE3" t="n">
-        <v>54475.1715886239</v>
+        <v>77842.93337645622</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.030775527278923e-05</v>
+        <v>1.491297693410721e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.972005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>49276.13766869421</v>
+        <v>70413.71306826832</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.00958589341065</v>
+        <v>54.08823545549981</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.63814816691229</v>
+        <v>74.00590995472737</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.80531437704314</v>
+        <v>66.94288977661185</v>
       </c>
       <c r="AD4" t="n">
-        <v>37009.58589341065</v>
+        <v>54088.23545549982</v>
       </c>
       <c r="AE4" t="n">
-        <v>50638.14816691229</v>
+        <v>74005.90995472737</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.141141144651966e-05</v>
+        <v>1.650971634307198e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.685546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>45805.31437704314</v>
+        <v>66942.88977661185</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>36.14729608208567</v>
+        <v>44.81463214498888</v>
       </c>
       <c r="AB5" t="n">
-        <v>49.45832520552153</v>
+        <v>61.31735678278904</v>
       </c>
       <c r="AC5" t="n">
-        <v>44.73809206319208</v>
+        <v>55.46531431090305</v>
       </c>
       <c r="AD5" t="n">
-        <v>36147.29608208568</v>
+        <v>44814.63214498889</v>
       </c>
       <c r="AE5" t="n">
-        <v>49458.32520552153</v>
+        <v>61317.35678278904</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.168932537855906e-05</v>
+        <v>1.691179457916587e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.620442708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>44738.09206319208</v>
+        <v>55465.31431090305</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.81304029940837</v>
+        <v>51.91931791123688</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.00098169734028</v>
+        <v>71.03830128477944</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.32439677754464</v>
+        <v>64.25850551305786</v>
       </c>
       <c r="AD2" t="n">
-        <v>35813.04029940837</v>
+        <v>51919.31791123688</v>
       </c>
       <c r="AE2" t="n">
-        <v>49000.98169734028</v>
+        <v>71038.30128477943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123032125803311e-05</v>
+        <v>1.686440064385639e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.952473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>44324.39677754464</v>
+        <v>64258.50551305785</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.85559678523959</v>
+        <v>41.03674687300876</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.95447700807463</v>
+        <v>56.14828748497516</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.66408481650546</v>
+        <v>50.7895737321356</v>
       </c>
       <c r="AD3" t="n">
-        <v>32855.59678523959</v>
+        <v>41036.74687300876</v>
       </c>
       <c r="AE3" t="n">
-        <v>44954.47700807462</v>
+        <v>56148.28748497515</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292483206661549e-05</v>
+        <v>1.940902145342023e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.565104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>40664.08481650546</v>
+        <v>50789.5737321356</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.62850276558122</v>
+        <v>48.25954589517224</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.64375695169848</v>
+        <v>66.03083975465607</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.38301944621059</v>
+        <v>59.72894908335149</v>
       </c>
       <c r="AD2" t="n">
-        <v>32628.50276558123</v>
+        <v>48259.54589517224</v>
       </c>
       <c r="AE2" t="n">
-        <v>44643.75695169848</v>
+        <v>66030.83975465607</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248797778918584e-05</v>
+        <v>1.915339533427099e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.763671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>40383.01944621059</v>
+        <v>59728.94908335149</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.68868597013627</v>
+        <v>39.63221881678697</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.35785815038613</v>
+        <v>54.22655023505713</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.21984502172135</v>
+        <v>49.05124438816887</v>
       </c>
       <c r="AD3" t="n">
-        <v>31688.68597013627</v>
+        <v>39632.21881678698</v>
       </c>
       <c r="AE3" t="n">
-        <v>43357.85815038613</v>
+        <v>54226.55023505713</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.319760996144876e-05</v>
+        <v>2.024179137138113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>39219.84502172135</v>
+        <v>49051.24438816887</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.02176590275304</v>
+        <v>46.27294522836576</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.44534869175997</v>
+        <v>63.31268507969688</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.3944241851087</v>
+        <v>57.27021127561549</v>
       </c>
       <c r="AD2" t="n">
-        <v>31021.76590275304</v>
+        <v>46272.94522836576</v>
       </c>
       <c r="AE2" t="n">
-        <v>42445.34869175997</v>
+        <v>63312.68507969689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301785640035668e-05</v>
+        <v>2.034014384358114e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.744140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>38394.4241851087</v>
+        <v>57270.2112756155</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.0839040554084</v>
+        <v>44.37574972312673</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.73983355484305</v>
+        <v>60.7168584910716</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.89729505426642</v>
+        <v>54.92212673334229</v>
       </c>
       <c r="AD2" t="n">
-        <v>37083.90405540841</v>
+        <v>44375.74972312673</v>
       </c>
       <c r="AE2" t="n">
-        <v>50739.83355484305</v>
+        <v>60716.8584910716</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222854379431113e-05</v>
+        <v>1.992856596410346e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.134765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>45897.29505426643</v>
+        <v>54922.12673334229</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.19718833708426</v>
+        <v>65.62098741493422</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.31376350954453</v>
+        <v>89.78552997472553</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.8894323956686</v>
+        <v>81.2165250087422</v>
       </c>
       <c r="AD2" t="n">
-        <v>49197.18833708426</v>
+        <v>65620.98741493422</v>
       </c>
       <c r="AE2" t="n">
-        <v>67313.76350954453</v>
+        <v>89785.52997472553</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.54051442235762e-06</v>
+        <v>1.409497287520815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>60889.4323956686</v>
+        <v>81216.52500874219</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.71431878258177</v>
+        <v>43.09685527637679</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.49766244585307</v>
+        <v>58.9670186881882</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.96455220549308</v>
+        <v>53.33928918532992</v>
       </c>
       <c r="AD3" t="n">
-        <v>34714.31878258177</v>
+        <v>43096.85527637679</v>
       </c>
       <c r="AE3" t="n">
-        <v>47497.66244585307</v>
+        <v>58967.0186881882</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.215930345254678e-05</v>
+        <v>1.796392152014793e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.63671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>42964.55220549308</v>
+        <v>53339.28918532992</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.18913266191772</v>
+        <v>42.57166915571266</v>
       </c>
       <c r="AB4" t="n">
-        <v>46.77907962598757</v>
+        <v>58.24843586831947</v>
       </c>
       <c r="AC4" t="n">
-        <v>42.31454992141608</v>
+        <v>52.68928690125192</v>
       </c>
       <c r="AD4" t="n">
-        <v>34189.13266191772</v>
+        <v>42571.66915571265</v>
       </c>
       <c r="AE4" t="n">
-        <v>46779.07962598757</v>
+        <v>58248.43586831947</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243523497071284e-05</v>
+        <v>1.83715774485171e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>42314.54992141608</v>
+        <v>52689.28690125191</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.39313886533969</v>
+        <v>74.45110454675275</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.52782460211628</v>
+        <v>101.8672857917479</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.03323923660245</v>
+        <v>92.14521500744254</v>
       </c>
       <c r="AD2" t="n">
-        <v>57393.13886533969</v>
+        <v>74451.10454675274</v>
       </c>
       <c r="AE2" t="n">
-        <v>78527.82460211628</v>
+        <v>101867.2857917479</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.821358488437195e-06</v>
+        <v>1.135793445703391e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.948567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71033.23923660246</v>
+        <v>92145.21500744254</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.79638148090582</v>
+        <v>55.76900630775021</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.08292071756929</v>
+        <v>76.30561478515193</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.01676126673254</v>
+        <v>69.02311400567743</v>
       </c>
       <c r="AD3" t="n">
-        <v>38796.38148090582</v>
+        <v>55769.00630775021</v>
       </c>
       <c r="AE3" t="n">
-        <v>53082.92071756929</v>
+        <v>76305.61478515193</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06199132643135e-05</v>
+        <v>1.542190899110153e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.91015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>48016.76126673254</v>
+        <v>69023.11400567743</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.11901071926536</v>
+        <v>44.73333441454604</v>
       </c>
       <c r="AB4" t="n">
-        <v>49.41962392424882</v>
+        <v>61.20612164139445</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.70308437788633</v>
+        <v>55.36469529528362</v>
       </c>
       <c r="AD4" t="n">
-        <v>36119.01071926536</v>
+        <v>44733.33441454604</v>
       </c>
       <c r="AE4" t="n">
-        <v>49419.62392424882</v>
+        <v>61206.12164139445</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174043595915422e-05</v>
+        <v>1.704909732985811e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.630208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>44703.08437788633</v>
+        <v>55364.69529528362</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>35.80920212599257</v>
+        <v>44.42352582127319</v>
       </c>
       <c r="AB5" t="n">
-        <v>48.99573013914453</v>
+        <v>60.78222785628826</v>
       </c>
       <c r="AC5" t="n">
-        <v>44.31964642069247</v>
+        <v>54.98125733808916</v>
       </c>
       <c r="AD5" t="n">
-        <v>35809.20212599257</v>
+        <v>44423.52582127319</v>
       </c>
       <c r="AE5" t="n">
-        <v>48995.73013914454</v>
+        <v>60782.22785628826</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.181673171175008e-05</v>
+        <v>1.715989165780191e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.613932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>44319.64642069247</v>
+        <v>54981.25733808916</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.75486087776887</v>
+        <v>50.98618881829353</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.28962216283833</v>
+        <v>69.7615528930648</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.49005120563765</v>
+        <v>63.10360819592043</v>
       </c>
       <c r="AD2" t="n">
-        <v>36754.86087776887</v>
+        <v>50986.18881829353</v>
       </c>
       <c r="AE2" t="n">
-        <v>50289.62216283834</v>
+        <v>69761.5528930648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093011279578175e-05</v>
+        <v>1.821984682492105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>45490.05120563765</v>
+        <v>63103.60819592043</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.05663790123546</v>
+        <v>49.85637899829758</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.59779444916668</v>
+        <v>68.21569725365565</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.1505663474351</v>
+        <v>61.705286849114</v>
       </c>
       <c r="AD2" t="n">
-        <v>34056.63790123546</v>
+        <v>49856.37899829758</v>
       </c>
       <c r="AE2" t="n">
-        <v>46597.79444916668</v>
+        <v>68215.69725365564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18464166766697e-05</v>
+        <v>1.802913998389969e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>42150.56634743509</v>
+        <v>61705.286849114</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.20880688323548</v>
+        <v>40.2366887136216</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.06951052980024</v>
+        <v>55.05361261523203</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.86357829685669</v>
+        <v>49.79937309557167</v>
       </c>
       <c r="AD3" t="n">
-        <v>32208.80688323547</v>
+        <v>40236.6887136216</v>
       </c>
       <c r="AE3" t="n">
-        <v>44069.51052980024</v>
+        <v>55053.61261523203</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.299364310684e-05</v>
+        <v>1.977511148459017e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>39863.57829685669</v>
+        <v>49799.37309557167</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.33614716720538</v>
+        <v>53.5024578287875</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.03091664380428</v>
+        <v>73.20442316317498</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.11077302027076</v>
+        <v>66.21789575955118</v>
       </c>
       <c r="AD2" t="n">
-        <v>45336.14716720537</v>
+        <v>53502.4578287875</v>
       </c>
       <c r="AE2" t="n">
-        <v>62030.91664380427</v>
+        <v>73204.42316317499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074839451827851e-05</v>
+        <v>1.604639311989847e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>56110.77302027076</v>
+        <v>66217.89575955119</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.55088444668976</v>
+        <v>41.80244645429116</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.9058002603929</v>
+        <v>57.1959514323621</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.52461511281587</v>
+        <v>51.73725010279264</v>
       </c>
       <c r="AD3" t="n">
-        <v>33550.88444668976</v>
+        <v>41802.44645429116</v>
       </c>
       <c r="AE3" t="n">
-        <v>45905.8002603929</v>
+        <v>57195.9514323621</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254732352152496e-05</v>
+        <v>1.873203346663027e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.610677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>41524.61511281587</v>
+        <v>51737.25010279263</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>33.42252310080571</v>
+        <v>41.67408510840711</v>
       </c>
       <c r="AB4" t="n">
-        <v>45.73017060405228</v>
+        <v>57.02032177602148</v>
       </c>
       <c r="AC4" t="n">
-        <v>41.3657473043781</v>
+        <v>51.57838229435487</v>
       </c>
       <c r="AD4" t="n">
-        <v>33422.5231008057</v>
+        <v>41674.0851084071</v>
       </c>
       <c r="AE4" t="n">
-        <v>45730.17060405228</v>
+        <v>57020.32177602148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26723972854267e-05</v>
+        <v>1.891875742630068e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.584635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>41365.74730437811</v>
+        <v>51578.38229435487</v>
       </c>
     </row>
   </sheetData>
